--- a/etf_dfs/EPHE.xlsx
+++ b/etf_dfs/EPHE.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>EPHE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,4760 +426,4813 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EPHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>25.59000015258789</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>25.59000015258789</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>24.90999984741211</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>24.96999931335449</v>
       </c>
-      <c r="F2">
-        <v>22.81193351745605</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>22.81192779541016</v>
+      </c>
+      <c r="G2" t="n">
         <v>9100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>25.95000076293945</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>26.10000038146973</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>25.95000076293945</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>26.09000015258789</v>
       </c>
-      <c r="F3">
-        <v>23.83513069152832</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>23.83513450622559</v>
+      </c>
+      <c r="G3" t="n">
         <v>10400</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.04485385943260312</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>22.90999984741211</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>23.03000068664551</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>22.92000007629395</v>
       </c>
-      <c r="F4">
-        <v>20.9391040802002</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>20.93910217285156</v>
+      </c>
+      <c r="G4" t="n">
         <v>44800</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>-0.1215024935896565</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.117631705315503</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>24.79000091552734</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>24.95000076293945</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>24.77000045776367</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>24.93000030517578</v>
       </c>
-      <c r="F5">
-        <v>22.78986549377441</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>22.78986740112305</v>
+      </c>
+      <c r="G5" t="n">
         <v>18800</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.08769634477273724</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.1105094782610382</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>22.43000030517578</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>22.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>22.20000076293945</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>22.32999992370605</v>
       </c>
-      <c r="F6">
-        <v>20.41305923461914</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>20.41306304931641</v>
+      </c>
+      <c r="G6" t="n">
         <v>46300</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>-0.1042920316743813</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.1051484277253648</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>22.10000038146973</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>22.15999984741211</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>22.01000022888184</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>22.1299991607666</v>
       </c>
-      <c r="F7">
-        <v>20.23023223876953</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>20.23023414611816</v>
+      </c>
+      <c r="G7" t="n">
         <v>20600</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>-0.008956594877867707</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.09128720688016045</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>23.78000068664551</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>23.8700008392334</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>23.73999977111816</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>23.73999977111816</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>21.70202255249023</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>37000</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.0727519508091925</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.09007855248867741</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>25.29999923706055</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>25.48999977111816</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>25.29999923706055</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>25.35000038146973</v>
       </c>
-      <c r="F9">
-        <v>23.17380905151367</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>23.1738109588623</v>
+      </c>
+      <c r="G9" t="n">
         <v>52000</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.06781805500732441</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.08670279166806097</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>24.64999961853027</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>24.64999961853027</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>24.38999938964844</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>24.47999954223633</v>
       </c>
-      <c r="F10">
-        <v>22.37849617004395</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>22.37849426269531</v>
+      </c>
+      <c r="G10" t="n">
         <v>149600</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>-0.03431955921662821</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.0814952577433616</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>24.40999984741211</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>24.55999946594238</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>24.35000038146973</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>24.54999923706055</v>
       </c>
-      <c r="F11">
-        <v>22.58481216430664</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>22.58481407165527</v>
+      </c>
+      <c r="G11" t="n">
         <v>79100</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.002859464711322701</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.07623586903195526</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>25.8700008392334</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>26.25</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>25.8700008392334</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>26.10000038146973</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>24.01073837280273</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>87900</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.06313650478934862</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.07453272707419729</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>24.94000053405762</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>25.18000030517578</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>24.89999961853027</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>24.94000053405762</v>
       </c>
-      <c r="F13">
-        <v>22.94359397888184</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>22.9435920715332</v>
+      </c>
+      <c r="G13" t="n">
         <v>116800</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>-0.04444443794857866</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.07238957714608356</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>21.76000022888184</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>22.04000091552734</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>21.20999908447266</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>21.26000022888184</v>
       </c>
-      <c r="F14">
-        <v>19.55817031860352</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>19.55817222595215</v>
+      </c>
+      <c r="G14" t="n">
         <v>144400</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>-0.1475541389885072</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.0814610539635499</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-0.1485782613733782</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>-0.1485782613733782</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>23.95000076293945</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>24.06999969482422</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>23.79999923706055</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>23.90999984741211</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>21.99604225158691</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>95800</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.1246472055503665</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.08649213999502436</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-0.08355692956788063</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.08355692956788063</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>23.28000068664551</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>23.70000076293945</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>23.21999931335449</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>23.60000038146973</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>21.71085929870605</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>26100</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-0.01296526423758781</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.08317350000325918</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>0.02966842508343204</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>0.02966842508343204</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>23.52000045776367</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>23.6299991607666</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>23.46999931335449</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>23.56999969482422</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>21.77517509460449</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>26700</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>-0.001271215515278756</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.08014811023764841</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-0.05455277150835847</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.05455277150835847</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>25.98999977111816</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>26.10000038146973</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>25.8700008392334</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>25.98999977111816</v>
       </c>
-      <c r="F18">
-        <v>24.01089859008789</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>24.01089286804199</v>
+      </c>
+      <c r="G18" t="n">
         <v>20900</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>0.1026728938322965</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.08163480891855852</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>0.1639050541834783</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>0.1639050541834783</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>27.1200008392334</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>27.25</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>26.89999961853027</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>27.10000038146973</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>25.03636932373047</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>171200</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>0.04270875798871954</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.07955069667682263</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>0.2245820790411164</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>0.2245820790411164</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>28.67000007629395</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>28.78000068664551</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>28.6299991607666</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>28.73999977111816</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>26.55148506164551</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>75900</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>0.0605165817919997</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.07816664190171897</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>0.2106149978182792</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>0.2106149978182792</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>29.65999984741211</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>29.71999931335449</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>29.55999946594238</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>29.64999961853027</v>
       </c>
-      <c r="F21">
-        <v>27.3921947479248</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>27.39219093322754</v>
+      </c>
+      <c r="G21" t="n">
         <v>43000</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>0.03166318213845631</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.0761149958195779</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>0.1696252138995529</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>0.1696252138995529</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>27.97999954223633</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>28.28000068664551</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>27.97999954223633</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>28.13999938964844</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>25.9971752166748</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>39500</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>-0.05092749572712085</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.07540497248190015</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>0.1495098004841611</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>0.1495098004841611</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>29.57999992370605</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>29.89999961853027</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>29.47999954223633</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>29.82999992370605</v>
       </c>
-      <c r="F23">
-        <v>27.76888275146484</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>27.76887893676758</v>
+      </c>
+      <c r="G23" t="n">
         <v>125900</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>0.06005687884553756</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.07434342063686809</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>0.2150713177487535</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>0.2150713177487535</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>30.10000038146973</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>30.20000076293945</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>29.95000076293945</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>29.95000076293945</v>
       </c>
-      <c r="F24">
-        <v>27.88059043884277</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>27.88059425354004</v>
+      </c>
+      <c r="G24" t="n">
         <v>60000</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>0.004022823987271718</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.07256787319365805</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>0.147509591003804</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>0.147509591003804</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>29.10000038146973</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>29.25</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>28.98999977111816</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>29.10000038146973</v>
       </c>
-      <c r="F25">
-        <v>27.08931922912598</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>27.08932113647461</v>
+      </c>
+      <c r="G25" t="n">
         <v>130500</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>-0.02838064640457472</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.07137027564735272</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>0.1668003110798368</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>0.1668003110798368</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>30.77000045776367</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>30.79999923706055</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>30.5</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>30.63999938964844</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>28.52291488647461</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>65700</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>0.05292092742237031</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.07037062762109127</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>0.441204095003904</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>0.441204095003904</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>31.90999984741211</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>31.95000076293945</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>31.55999946594238</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>31.81999969482422</v>
       </c>
-      <c r="F27">
-        <v>29.62138175964355</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>29.62137985229492</v>
+      </c>
+      <c r="G27" t="n">
         <v>232500</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>0.03851176007446133</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.06910856085098026</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>0.3308239187742297</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>0.3308239187742297</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>33.84999847412109</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>33.86999893188477</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>33.4900016784668</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>33.59999847412109</v>
       </c>
-      <c r="F28">
-        <v>31.27838516235352</v>
-      </c>
-      <c r="G28">
+      <c r="F28" t="n">
+        <v>31.27839469909668</v>
+      </c>
+      <c r="G28" t="n">
         <v>274000</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>0.05593962276455988</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.06825621213769636</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>0.4237287258903257</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>0.4237287258903257</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>34.13000106811523</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>34.63000106811523</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>34.13000106811523</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>34.54999923706055</v>
       </c>
-      <c r="F29">
-        <v>32.20323944091797</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>32.20323181152344</v>
+      </c>
+      <c r="G29" t="n">
         <v>171500</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>0.02827383351434221</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.06698885638704605</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>0.4658464015443939</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>0.4658464015443939</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>37.18999862670898</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>37.29000091552734</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>37.15999984741211</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>37.2599983215332</v>
       </c>
-      <c r="F30">
-        <v>34.72916793823242</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>34.72916412353516</v>
+      </c>
+      <c r="G30" t="n">
         <v>299600</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>0.07843702299031419</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.06684428593017912</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>0.4336282666281137</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>0.4336282666281137</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>40.09999847412109</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>40.2599983215332</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>40</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>40</v>
       </c>
-      <c r="F31">
-        <v>37.28304672241211</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>37.28305053710938</v>
+      </c>
+      <c r="G31" t="n">
         <v>494200</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>0.07353735378144943</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.06648578400911281</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>0.4760147393706664</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>0.4760147393706664</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>40.88000106811523</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>41.2599983215332</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>40.84999847412109</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>41.13999938964844</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>38.34561538696289</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>455500</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>0.02849998474121085</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.06535459295341471</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>0.431454409091244</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>0.431454409091244</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>41.75</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>41.93999862670898</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>41.61000061035156</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>41.88000106811523</v>
       </c>
-      <c r="F33">
-        <v>39.03535842895508</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>39.03535461425781</v>
+      </c>
+      <c r="G33" t="n">
         <v>358900</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>0.01798740129911125</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.06425632589607982</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>0.4124789749387252</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.4124789749387252</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>39.40999984741211</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>39.5</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>38.81000137329102</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>39.0099983215332</v>
       </c>
-      <c r="F34">
-        <v>36.36029815673828</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>36.36029052734375</v>
+      </c>
+      <c r="G34" t="n">
         <v>854900</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>-0.06852919468445451</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.0650721149647497</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.3862828417787172</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0.3862828417787172</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>34.7400016784668</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>35.20999908447266</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>34.38000106811523</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>35.04000091552734</v>
       </c>
-      <c r="F35">
-        <v>32.93901443481445</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>32.93901062011719</v>
+      </c>
+      <c r="G35" t="n">
         <v>290500</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>-0.1017687151197454</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.06725561594207261</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>0.1746564198842278</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>0.1746564198842278</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>36.0099983215332</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>36.09000015258789</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>35.40000152587891</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>36</v>
       </c>
-      <c r="F36">
-        <v>33.84144973754883</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>33.8414421081543</v>
+      </c>
+      <c r="G36" t="n">
         <v>678900</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>0.0273972334300725</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.06627759241241354</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>0.2020033082786061</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>0.2020033082786061</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>31.55999946594238</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>31.55999946594238</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>30.92000007629395</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>31.15999984741211</v>
       </c>
-      <c r="F37">
-        <v>29.29166221618652</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>29.29165649414062</v>
+      </c>
+      <c r="G37" t="n">
         <v>626400</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>-0.134444448682997</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.06989034348335679</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>0.07079035872639183</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0.07079035872639183</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>32.59999847412109</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>32.95000076293945</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>32.4900016784668</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>32.88999938964844</v>
       </c>
-      <c r="F38">
-        <v>30.91792297363281</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>30.91792678833008</v>
+      </c>
+      <c r="G38" t="n">
         <v>275000</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>0.05551988288536558</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.06932361352193726</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>0.07343342182833568</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>0.07343342182833568</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>35.38000106811523</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>35.4900016784668</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>35.04999923706055</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>35.20000076293945</v>
       </c>
-      <c r="F39">
-        <v>33.08942031860352</v>
-      </c>
-      <c r="G39">
+      <c r="F39" t="n">
+        <v>33.08942413330078</v>
+      </c>
+      <c r="G39" t="n">
         <v>235400</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>0.07023415676979461</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.06906555157387574</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>0.106222536157504</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>0.106222536157504</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>32.90000152587891</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>33.59000015258789</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>32.90000152587891</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>33.45999908447266</v>
       </c>
-      <c r="F40">
-        <v>31.45375823974609</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>31.45374870300293</v>
+      </c>
+      <c r="G40" t="n">
         <v>189900</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>-0.0494318647941272</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.06884410238004456</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>-0.004166648690661856</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>-0.004166648690661856</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>31.23999977111816</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>31.60000038146973</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>31.15999984741211</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>31.60000038146973</v>
       </c>
-      <c r="F41">
-        <v>29.74539375305176</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>29.74539184570312</v>
+      </c>
+      <c r="G41" t="n">
         <v>68000</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>-0.05558872546012938</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.06874179530391565</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>-0.08538347093294474</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>-0.08538347093294474</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>30.8700008392334</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>31.11000061035156</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>30.3700008392334</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>30.95999908447266</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>29.14295196533203</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>113600</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>-0.02025320535667996</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.06800602789611743</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>-0.1690821127444783</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>-0.1690821127444783</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>34.13999938964844</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>34.41999816894531</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>33.79999923706055</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>34.18000030517578</v>
       </c>
-      <c r="F43">
-        <v>32.17398071289062</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>32.17397308349609</v>
+      </c>
+      <c r="G43" t="n">
         <v>669300</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>0.1040052104626208</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.06881429662804595</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>-0.1454999923706055</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>-0.1454999923706055</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>34.29000091552734</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>34.47999954223633</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>34.02000045776367</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>34.09000015258789</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>32.08925628662109</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>365200</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>-0.002633123223649059</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.06799808492024602</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>-0.1713660510854177</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>-0.1713660510854177</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>35.72999954223633</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>35.95000076293945</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>35.58000183105469</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>35.93999862670898</v>
       </c>
-      <c r="F45">
-        <v>33.8306770324707</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>33.83066940307617</v>
+      </c>
+      <c r="G45" t="n">
         <v>221600</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>0.05426806881315471</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.06752588314491904</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>-0.1418338655661733</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>-0.1418338655661733</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>36.47000122070312</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>36.5</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>35.9900016784668</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>36.04999923706055</v>
       </c>
-      <c r="F46">
-        <v>33.93423080444336</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>33.93422317504883</v>
+      </c>
+      <c r="G46" t="n">
         <v>334500</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>0.003060673749436749</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.06674623345415878</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>-0.07587795980085343</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>-0.07587795980085343</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>37.11999893188477</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>37.16999816894531</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>36.77000045776367</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>36.83000183105469</v>
       </c>
-      <c r="F47">
-        <v>34.9222412109375</v>
-      </c>
-      <c r="G47">
+      <c r="F47" t="n">
+        <v>34.92223358154297</v>
+      </c>
+      <c r="G47" t="n">
         <v>206800</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>0.02163668822473297</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.06600387451996291</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>0.05108449967916906</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>0.05108449967916906</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>36.90000152587891</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>36.93999862670898</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>36.31999969482422</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>36.59000015258789</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>34.69466781616211</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>248700</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>-0.006516472075340229</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.06531660216435531</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>0.01638889312744141</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.01638889312744141</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>38.61999893188477</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>38.61999893188477</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>38.02000045776367</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>38.18999862670898</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>36.21178436279297</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>260400</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>0.04372775259493755</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.06478456702477325</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>0.2256097180270278</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.2256097180270278</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>37.93999862670898</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>38.16999816894531</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>37.81999969482422</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>38.06000137329102</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>36.08852767944336</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>395300</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>-0.003403960672757167</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.06412623537418474</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>0.1571906986799685</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>0.1571906986799685</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>38.2400016784668</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>38.36999893188477</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>38</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>38.27999877929688</v>
       </c>
-      <c r="F51">
-        <v>36.29712677001953</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>36.2971305847168</v>
+      </c>
+      <c r="G51" t="n">
         <v>180100</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>0.005780278456853694</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.06345891790706125</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>0.08749994175000753</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>0.08749994175000753</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>38.61000061035156</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>38.75</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>38.4900016784668</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>38.61999893188477</v>
       </c>
-      <c r="F52">
-        <v>36.61951446533203</v>
-      </c>
-      <c r="G52">
+      <c r="F52" t="n">
+        <v>36.61951065063477</v>
+      </c>
+      <c r="G52" t="n">
         <v>367500</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>0.00888192694435963</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.06280861038640584</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>0.1542139865092418</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>0.1542139865092418</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>38.38000106811523</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>38.56999969482422</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>38.13999938964844</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>38.20000076293945</v>
       </c>
-      <c r="F53">
-        <v>36.31938552856445</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>36.31937408447266</v>
+      </c>
+      <c r="G53" t="n">
         <v>165600</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>-0.01087514708858683</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.06225095563641348</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>0.2088607690441666</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>0.2088607690441666</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>40.88999938964844</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>41.11999893188477</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>40.63000106811523</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>40.83000183105469</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>38.81990432739258</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>622300</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>0.06884819412534626</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.06216984096216351</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>0.3187985477535795</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>0.3187985477535795</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>41.79999923706055</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>42</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>41.75</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>41.75</v>
       </c>
-      <c r="F55">
-        <v>39.69461441040039</v>
-      </c>
-      <c r="G55">
+      <c r="F55" t="n">
+        <v>39.69460678100586</v>
+      </c>
+      <c r="G55" t="n">
         <v>269700</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>0.02253240577240367</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.06158800661424506</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>0.221474535612509</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>0.221474535612509</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>41.84000015258789</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>41.86000061035156</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>41.54000091552734</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>41.59999847412109</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>39.55199432373047</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>395200</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>-0.003592850919255208</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.06103946701203748</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>0.2202991577564746</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>0.2202991577564746</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>40.7599983215332</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>40.7599983215332</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>40.20000076293945</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>40.27999877929688</v>
       </c>
-      <c r="F57">
-        <v>38.29697799682617</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>38.29697036743164</v>
+      </c>
+      <c r="G57" t="n">
         <v>343300</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>-0.03173076305869038</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.06075022036424214</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>0.1207568257769103</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>0.1207568257769103</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>39.83000183105469</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>39.88999938964844</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>39.59000015258789</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>39.65000152587891</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>37.69799041748047</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>346700</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>-0.0156404486720535</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.06029731947798226</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>0.09986136934830903</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>0.09986136934830903</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>38.68999862670898</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>38.88999938964844</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>38.34000015258789</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>38.5</v>
       </c>
-      <c r="F59">
-        <v>36.81364059448242</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>36.81363677978516</v>
+      </c>
+      <c r="G59" t="n">
         <v>275000</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>-0.02900382046967431</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>0.05998072995014381</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>0.04534341802658259</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>0.04534341802658259</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>38.5099983215332</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>38.88000106811523</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>38.5099983215332</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>38.79999923706055</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>37.10050201416016</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>252300</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>0.007792187975598663</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>0.05945264292658199</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>0.06039899085150324</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>0.06039899085150324</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>35.0099983215332</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>35.04999923706055</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>34.65999984741211</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>34.90000152587891</v>
       </c>
-      <c r="F61">
-        <v>33.37133407592773</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>33.37133026123047</v>
+      </c>
+      <c r="G61" t="n">
         <v>171300</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>-0.1005154069038353</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>0.06065016586811219</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>-0.08614813352020256</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>-0.08614813352020256</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>34.45000076293945</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>34.56000137329102</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>34.09999847412109</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>34.38999938964844</v>
       </c>
-      <c r="F62">
-        <v>32.8836669921875</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>32.88367080688477</v>
+      </c>
+      <c r="G62" t="n">
         <v>194400</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>-0.01461324108688922</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>0.06020193522293507</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>-0.09642674333212287</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>-0.09642674333212287</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>35.36999893188477</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>35.4900016784668</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>35.18000030517578</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>35.20999908447266</v>
       </c>
-      <c r="F63">
-        <v>33.66774368286133</v>
-      </c>
-      <c r="G63">
+      <c r="F63" t="n">
+        <v>33.66774749755859</v>
+      </c>
+      <c r="G63" t="n">
         <v>296200</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>0.02384413228780224</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>0.05973631818738416</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>-0.08019853168032443</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>-0.08019853168032443</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>34</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>34.41999816894531</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>33.81000137329102</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>34.34999847412109</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>32.84540939331055</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>479600</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>-0.02442489726535713</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>0.05938271324446235</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>-0.1105644892765222</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>-0.1105644892765222</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>33.90000152587891</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>33.97999954223633</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>33.70000076293945</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>33.7400016784668</v>
       </c>
-      <c r="F65">
-        <v>32.38091278076172</v>
-      </c>
-      <c r="G65">
+      <c r="F65" t="n">
+        <v>32.38090896606445</v>
+      </c>
+      <c r="G65" t="n">
         <v>53600</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>-0.01775827722711143</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>0.0589839213870999</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>-0.1167539004030497</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>-0.1167539004030497</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>31.70999908447266</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>32.33000183105469</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>31.70999908447266</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>32.29000091552734</v>
       </c>
-      <c r="F66">
-        <v>30.98931694030762</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>30.98932456970215</v>
+      </c>
+      <c r="G66" t="n">
         <v>227500</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>-0.04297571697706404</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>0.05884029916851181</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>-0.2091599444659331</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>-0.2091599444659331</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>32.56000137329102</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>32.88000106811523</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>32.47000122070312</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>32.61999893188477</v>
       </c>
-      <c r="F67">
-        <v>31.3060245513916</v>
-      </c>
-      <c r="G67">
+      <c r="F67" t="n">
+        <v>31.30602836608887</v>
+      </c>
+      <c r="G67" t="n">
         <v>256800</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>0.01021982059463911</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>0.05838141865808165</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>-0.2186826603141373</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>-0.2186826603141373</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>36.72999954223633</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>36.91999816894531</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>36.54000091552734</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>36.65000152587891</v>
       </c>
-      <c r="F68">
-        <v>35.17369842529297</v>
-      </c>
-      <c r="G68">
+      <c r="F68" t="n">
+        <v>35.1736946105957</v>
+      </c>
+      <c r="G68" t="n">
         <v>160600</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>0.1235439217030436</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>0.05971516923679623</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>-0.1189903156203606</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>-0.1189903156203606</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>35.15999984741211</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>35.2400016784668</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>34.7599983215332</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>35.02999877929688</v>
       </c>
-      <c r="F69">
-        <v>33.61894226074219</v>
-      </c>
-      <c r="G69">
+      <c r="F69" t="n">
+        <v>33.61894607543945</v>
+      </c>
+      <c r="G69" t="n">
         <v>249700</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>-0.04420198305962231</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>0.059598195653021</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>-0.1303376404941302</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>-0.1303376404941302</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>37.29000091552734</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>37.38999938964844</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>37.13000106811523</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>37.34999847412109</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>35.84549331665039</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="n">
         <v>673400</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>0.06622894021324854</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>0.05958858044095783</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>-0.05800764093934874</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>-0.05800764093934874</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>38.86000061035156</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>39.18999862670898</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>38.81999969482422</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>39.16999816894531</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>37.72634124755859</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>403400</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>0.0487282401386242</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>0.05935453758166867</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>0.01740254984273548</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>0.01740254984273548</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>39.72000122070312</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>39.75</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>39.5099983215332</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>39.61999893188477</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>38.15975570678711</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>589500</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>0.01148840398201045</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>0.05892408871859389</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>0.02113401316876784</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>0.02113401316876784</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>38.59000015258789</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>38.59999847412109</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>38.31999969482422</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>38.43000030517578</v>
       </c>
-      <c r="F73">
-        <v>37.01361465454102</v>
-      </c>
-      <c r="G73">
+      <c r="F73" t="n">
+        <v>37.01361846923828</v>
+      </c>
+      <c r="G73" t="n">
         <v>251800</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>-0.03003530183720715</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>0.05867881830691538</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>0.1011460924057359</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>0.1011460924057359</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>37.18999862670898</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>37.36000061035156</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>37.0099983215332</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>37.2599983215332</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>35.88673782348633</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="n">
         <v>551600</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>-0.03044501624646101</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>0.05843831246369662</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>0.08345446300730819</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>0.08345446300730819</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>35.45999908447266</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>35.45999908447266</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>35.2599983215332</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>35.34999847412109</v>
       </c>
-      <c r="F75">
-        <v>34.04713439941406</v>
-      </c>
-      <c r="G75">
+      <c r="F75" t="n">
+        <v>34.0471305847168</v>
+      </c>
+      <c r="G75" t="n">
         <v>222900</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>-0.05126140454784422</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>0.05843418451317121</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>0.003976125909931572</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>0.003976125909931572</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>32.38999938964844</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>32.47000122070312</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>32.15000152587891</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>32.2400016784668</v>
       </c>
-      <c r="F76">
-        <v>31.0517578125</v>
-      </c>
-      <c r="G76">
+      <c r="F76" t="n">
+        <v>31.05175971984863</v>
+      </c>
+      <c r="G76" t="n">
         <v>153000</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>-0.08797728231674617</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>0.05906223436851141</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>-0.06142640143765787</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>-0.06142640143765787</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>32.72999954223633</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>32.7400016784668</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>32.31000137329102</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>32.41999816894531</v>
       </c>
-      <c r="F77">
-        <v>31.31476593017578</v>
-      </c>
-      <c r="G77">
+      <c r="F77" t="n">
+        <v>31.31476211547852</v>
+      </c>
+      <c r="G77" t="n">
         <v>101500</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>0.005583017404082069</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>0.05866182424327841</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>-0.03912280509351374</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>-0.03912280509351374</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>34.31999969482422</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>34.5</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>34.25</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>34.27999877929688</v>
       </c>
-      <c r="F78">
-        <v>33.11135101318359</v>
-      </c>
-      <c r="G78">
+      <c r="F78" t="n">
+        <v>33.11135482788086</v>
+      </c>
+      <c r="G78" t="n">
         <v>155300</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>0.05737201466387587</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>0.05857585338929033</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>0.06162891939754012</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>0.06162891939754012</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>33.40999984741211</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>33.52999877929688</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>33.18999862670898</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>33.2400016784668</v>
       </c>
-      <c r="F79">
-        <v>32.10681915283203</v>
-      </c>
-      <c r="G79">
+      <c r="F79" t="n">
+        <v>32.10680770874023</v>
+      </c>
+      <c r="G79" t="n">
         <v>165100</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>-0.03033830623874401</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>0.05833552573884299</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>0.01900682915032226</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>0.01900682915032226</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>34.18000030517578</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>34.29000091552734</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>34.09999847412109</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>34.15999984741211</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>32.99544525146484</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="n">
         <v>115400</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>0.02767744050811216</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>0.05801023494209911</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>-0.0679400156834532</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>-0.0679400156834532</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>35.88000106811523</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>35.91999816894531</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>35.7599983215332</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>35.84000015258789</v>
       </c>
-      <c r="F81">
-        <v>34.61817932128906</v>
-      </c>
-      <c r="G81">
+      <c r="F81" t="n">
+        <v>34.6181755065918</v>
+      </c>
+      <c r="G81" t="n">
         <v>76800</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>0.04918033702225122</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>0.05784431519461819</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>0.02312307740557884</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>0.02312307740557884</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>36.66999816894531</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>36.84000015258789</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>36.38999938964844</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>36.40999984741211</v>
       </c>
-      <c r="F82">
-        <v>35.16873931884766</v>
-      </c>
-      <c r="G82">
+      <c r="F82" t="n">
+        <v>35.16874694824219</v>
+      </c>
+      <c r="G82" t="n">
         <v>196200</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>0.01590400927448266</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>0.05748715991333751</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>-0.0251673002707159</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>-0.0251673002707159</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>35.70999908447266</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>36</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>35.63999938964844</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>35.83000183105469</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>34.71747589111328</v>
       </c>
-      <c r="G83">
+      <c r="G83" t="n">
         <v>143200</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>-0.01592963523175206</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>0.05718049083929806</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>-0.08526924927299673</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>-0.08526924927299673</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>36.47000122070312</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>36.47999954223633</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>36.31000137329102</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>36.41999816894531</v>
       </c>
-      <c r="F84">
-        <v>35.28916168212891</v>
-      </c>
-      <c r="G84">
+      <c r="F84" t="n">
+        <v>35.28915023803711</v>
+      </c>
+      <c r="G84" t="n">
         <v>213200</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>0.0164665450108703</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>0.0568379486811476</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>-0.08076731068168219</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>-0.08076731068168219</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>35.66999816894531</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>35.88000106811523</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>35.59999847412109</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>35.77000045776367</v>
       </c>
-      <c r="F85">
-        <v>34.65933609008789</v>
-      </c>
-      <c r="G85">
+      <c r="F85" t="n">
+        <v>34.65934753417969</v>
+      </c>
+      <c r="G85" t="n">
         <v>109000</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>-0.01784727468042224</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>0.05655210385655063</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>-0.06921675322115095</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>-0.06921675322115095</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>36.70999908447266</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>37.02999877929688</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>36.66999816894531</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>36.97000122070312</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>35.82208251953125</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>184900</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>0.03354768654130669</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>0.05629104509687201</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>-0.007783068005735361</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>-0.007783068005735361</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>36.7599983215332</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>37.02000045776367</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>36.68999862670898</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>37.0099983215332</v>
       </c>
-      <c r="F87">
-        <v>35.86083984375</v>
-      </c>
-      <c r="G87">
+      <c r="F87" t="n">
+        <v>35.86083221435547</v>
+      </c>
+      <c r="G87" t="n">
         <v>268700</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>0.001081879889354154</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>0.05595780509540078</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>0.04695897932293702</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>0.04695897932293702</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>36.70000076293945</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>36.84000015258789</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>36.52999877929688</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>36.61000061035156</v>
       </c>
-      <c r="F88">
-        <v>35.4732551574707</v>
-      </c>
-      <c r="G88">
+      <c r="F88" t="n">
+        <v>35.47326278686523</v>
+      </c>
+      <c r="G88" t="n">
         <v>323000</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>-0.01080782840643668</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>0.05565792208080347</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>0.1355458655203328</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>0.1355458655203328</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>38.90999984741211</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>39.06000137329102</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>38.79999923706055</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>38.81999969482422</v>
       </c>
-      <c r="F89">
-        <v>37.6392822265625</v>
-      </c>
-      <c r="G89">
+      <c r="F89" t="n">
+        <v>37.63928604125977</v>
+      </c>
+      <c r="G89" t="n">
         <v>147300</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>0.06036599419907618</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>0.05563940397221948</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>0.1974090650014095</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>0.1974090650014095</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>38.40000152587891</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>38.59999847412109</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>37.84000015258789</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>38.11000061035156</v>
       </c>
-      <c r="F90">
-        <v>36.95088195800781</v>
-      </c>
-      <c r="G90">
+      <c r="F90" t="n">
+        <v>36.95087432861328</v>
+      </c>
+      <c r="G90" t="n">
         <v>220900</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>-0.01828951803333778</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>0.05538248495103947</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>0.1117270118856535</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>0.1117270118856535</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>36.65000152587891</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>36.65000152587891</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>36.15999984741211</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>36.18000030517578</v>
       </c>
-      <c r="F91">
-        <v>35.0795783996582</v>
-      </c>
-      <c r="G91">
+      <c r="F91" t="n">
+        <v>35.07958221435547</v>
+      </c>
+      <c r="G91" t="n">
         <v>270200</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>-0.05064288308228337</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>0.05539732862116054</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>0.08844760764899551</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>0.08844760764899551</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>34.34000015258789</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>35.02000045776367</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>34.25</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>34.93999862670898</v>
       </c>
-      <c r="F92">
-        <v>33.87729644775391</v>
-      </c>
-      <c r="G92">
+      <c r="F92" t="n">
+        <v>33.87729263305664</v>
+      </c>
+      <c r="G92" t="n">
         <v>193900</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>-0.03427312515222414</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>0.05524623668108401</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>0.02283368802052155</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>0.02283368802052155</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>34.18000030517578</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>34.22000122070312</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>33.81000137329102</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>33.81000137329102</v>
       </c>
-      <c r="F93">
-        <v>32.78166580200195</v>
-      </c>
-      <c r="G93">
+      <c r="F93" t="n">
+        <v>32.78166198730469</v>
+      </c>
+      <c r="G93" t="n">
         <v>126100</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>-0.03234107893050031</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>0.05507973089975494</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>-0.05664059069905714</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>-0.05664059069905714</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>32.34000015258789</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>32.59000015258789</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>32.18999862670898</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>32.52999877929688</v>
       </c>
-      <c r="F94">
-        <v>31.54059600830078</v>
-      </c>
-      <c r="G94">
+      <c r="F94" t="n">
+        <v>31.54059219360352</v>
+      </c>
+      <c r="G94" t="n">
         <v>140500</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>-0.03785869689450261</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>0.05495697240551684</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>-0.1065641605156725</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>-0.1065641605156725</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>29.89999961853027</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>30.20000076293945</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>29.89999961853027</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>30.14999961853027</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>29.34893226623535</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="n">
         <v>220900</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>-0.07316321088463451</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>0.05524591931716808</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>-0.1585264281957537</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>-0.1585264281957537</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>32.52999877929688</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>32.88999938964844</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>32.52999877929688</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>32.75</v>
       </c>
-      <c r="F96">
-        <v>31.87985801696777</v>
-      </c>
-      <c r="G96">
+      <c r="F96" t="n">
+        <v>31.87985420227051</v>
+      </c>
+      <c r="G96" t="n">
         <v>229600</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>0.08623550296404514</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>0.05560589572021096</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>-0.100768763137244</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>-0.100768763137244</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>32.56000137329102</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>33.06000137329102</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>32.54000091552734</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>32.90999984741211</v>
       </c>
-      <c r="F97">
-        <v>32.03560638427734</v>
-      </c>
-      <c r="G97">
+      <c r="F97" t="n">
+        <v>32.03559875488281</v>
+      </c>
+      <c r="G97" t="n">
         <v>201500</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>0.004885491524033947</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>0.0553093480962063</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>-0.07995528581914835</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>-0.07995528581914835</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>30.1299991607666</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>30.23999977111816</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>30.01000022888184</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>30.04999923706055</v>
       </c>
-      <c r="F98">
-        <v>29.25158882141113</v>
-      </c>
-      <c r="G98">
+      <c r="F98" t="n">
+        <v>29.25159072875977</v>
+      </c>
+      <c r="G98" t="n">
         <v>274700</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>-0.08690369564302691</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>0.05580175977654787</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>-0.1871788410915007</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>-0.1871788410915007</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>29.95999908447266</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>30.17000007629395</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>29.86000061035156</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>29.94000053405762</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>29.14451599121094</v>
       </c>
-      <c r="G99">
+      <c r="G99" t="n">
         <v>312700</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>-0.003660522655430487</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>0.0555151108016867</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>-0.1910294003813048</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>-0.1910294003813048</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>31.82999992370605</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>31.94000053405762</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>31.38999938964844</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>31.90999984741211</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>31.06217193603516</v>
       </c>
-      <c r="G100">
+      <c r="G100" t="n">
         <v>431600</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>0.06579823908531868</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>0.05558656242680618</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>-0.1283802426818457</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>-0.1283802426818457</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>32.5</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>32.5</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>31.78000068664551</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>31.8799991607666</v>
       </c>
-      <c r="F101">
-        <v>31.05358505249023</v>
-      </c>
-      <c r="G101">
+      <c r="F101" t="n">
+        <v>31.05358695983887</v>
+      </c>
+      <c r="G101" t="n">
         <v>125000</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>-0.0009401656781249379</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>0.05530450590597705</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>-0.1787738430864262</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>-0.1787738430864262</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>34.65000152587891</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>34.93000030517578</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>34.61999893188477</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>34.86999893188477</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
         <v>33.9660758972168</v>
       </c>
-      <c r="G102">
+      <c r="G102" t="n">
         <v>517100</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>0.0937892048252571</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>0.05575224140175999</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>-0.08501709857193596</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>-0.08501709857193596</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>33.90999984741211</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>34</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>33.4900016784668</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>33.54000091552734</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>32.67055511474609</v>
       </c>
-      <c r="G103">
+      <c r="G103" t="n">
         <v>605600</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>-0.03814161333802868</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>0.05563785477336697</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>-0.07296847339359391</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>-0.07296847339359391</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>34.31999969482422</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>34.38000106811523</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>34.15000152587891</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>34.29999923706055</v>
       </c>
-      <c r="F104">
-        <v>33.41085433959961</v>
-      </c>
-      <c r="G104">
+      <c r="F104" t="n">
+        <v>33.41085052490234</v>
+      </c>
+      <c r="G104" t="n">
         <v>324500</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>0.02265946036934552</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>0.05539101295037226</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>-0.0183170983057569</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="n">
         <v>-0.0183170983057569</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>34.83000183105469</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>35.0099983215332</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>34.70000076293945</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>34.93999862670898</v>
       </c>
-      <c r="F105">
-        <v>34.03426361083984</v>
-      </c>
-      <c r="G105">
+      <c r="F105" t="n">
+        <v>34.03425979614258</v>
+      </c>
+      <c r="G105" t="n">
         <v>217200</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>0.01865887474880545</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="n">
         <v>0.05513609767553088</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="n">
         <v>0.03342198188464551</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="n">
         <v>0.03342198188464551</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>34.90999984741211</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>35.29000091552734</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>34.56000137329102</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>35.18999862670898</v>
       </c>
-      <c r="F106">
-        <v>34.27778244018555</v>
-      </c>
-      <c r="G106">
+      <c r="F106" t="n">
+        <v>34.27778625488281</v>
+      </c>
+      <c r="G106" t="n">
         <v>509500</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>0.007155123349343651</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="n">
         <v>0.05486828520356796</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="n">
         <v>0.08177067160251528</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="n">
         <v>0.08177067160251528</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>35.66999816894531</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>35.72999954223633</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>35.54999923706055</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>35.61000061035156</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>34.92731857299805</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>325300</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>0.01193526570142578</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>0.05460828553978831</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>0.1810945625506926</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>0.1810945625506926</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>35.58000183105469</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>35.77000045776367</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>34.88000106811523</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>35.2599983215332</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>34.58402633666992</v>
       </c>
-      <c r="G108">
+      <c r="G108" t="n">
         <v>451700</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>-0.009828763909557892</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="n">
         <v>0.05436639265979167</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="n">
         <v>0.0766411701231513</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="n">
         <v>0.0766411701231513</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>34.47000122070312</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>34.56000137329102</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>34.2599983215332</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>34.43999862670898</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>33.77975082397461</v>
       </c>
-      <c r="G109">
+      <c r="G109" t="n">
         <v>90300</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>-0.02325580640551095</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="n">
         <v>0.05417697928698314</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="n">
         <v>0.04649039156459267</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="n">
         <v>0.04649039156459267</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>33.47000122070312</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>33.70999908447266</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>33.41999816894531</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>33.45000076293945</v>
       </c>
-      <c r="F110">
-        <v>32.80873107910156</v>
-      </c>
-      <c r="G110">
+      <c r="F110" t="n">
+        <v>32.8087272644043</v>
+      </c>
+      <c r="G110" t="n">
         <v>197700</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>-0.02874558371793212</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="n">
         <v>0.05401790376459766</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="n">
         <v>0.1131448123860748</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="n">
         <v>0.1131448123860748</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>35.18000030517578</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>35.22000122070312</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>34.90000152587891</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>35.08000183105469</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="n">
         <v>34.4074821472168</v>
       </c>
-      <c r="G111">
+      <c r="G111" t="n">
         <v>136000</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>0.04872947775598191</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="n">
         <v>0.05393637150730565</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="n">
         <v>0.1716767269643222</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="n">
         <v>0.1716767269643222</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>34.04000091552734</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>34.2599983215332</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>33.95999908447266</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>33.95999908447266</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>33.30895233154297</v>
       </c>
-      <c r="G112">
+      <c r="G112" t="n">
         <v>133900</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>-0.03192710057359649</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="n">
         <v>0.05380109727501946</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="n">
         <v>0.06424316035297006</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="n">
         <v>0.06424316035297006</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>34.27999877929688</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>34.45000076293945</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>34.20999908447266</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>34.31999969482422</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>33.69217300415039</v>
       </c>
-      <c r="G113">
+      <c r="G113" t="n">
         <v>137100</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>0.01060072497222664</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="n">
         <v>0.05355938405785316</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="n">
         <v>0.07653703256869671</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="n">
         <v>0.07653703256869671</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>31.35000038146973</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>31.35000038146973</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>30.79000091552734</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>31.18000030517578</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>30.60961532592773</v>
       </c>
-      <c r="G114">
+      <c r="G114" t="n">
         <v>291000</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>-0.09149182452125659</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>0.05408049948256301</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>-0.1058215870300726</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="n">
         <v>-0.1058215870300726</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>28.94000053405762</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>29.45999908447266</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>28.54000091552734</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>29.21999931335449</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="n">
         <v>28.68547058105469</v>
       </c>
-      <c r="G115">
+      <c r="G115" t="n">
         <v>253600</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>-0.06286083940467235</v>
       </c>
-      <c r="I115">
+      <c r="I115" t="n">
         <v>0.0541986913188291</v>
       </c>
-      <c r="J115">
+      <c r="J115" t="n">
         <v>-0.1288014753801902</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="n">
         <v>-0.1288014753801902</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>23</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>23.39999961853027</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>23</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>23.04000091552734</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
         <v>22.6185245513916</v>
       </c>
-      <c r="G116">
+      <c r="G116" t="n">
         <v>187400</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>-0.2114989234446247</v>
       </c>
-      <c r="I116">
+      <c r="I116" t="n">
         <v>0.05757236903265929</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="n">
         <v>-0.3282798417490043</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="n">
         <v>-0.3282798417490043</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>24.73999977111816</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>24.89999961853027</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>24.01000022888184</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>24.1299991607666</v>
       </c>
-      <c r="F117">
-        <v>23.68858337402344</v>
-      </c>
-      <c r="G117">
+      <c r="F117" t="n">
+        <v>23.6885814666748</v>
+      </c>
+      <c r="G117" t="n">
         <v>203700</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>0.04730894973639854</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>0.05748186927373514</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>-0.3093875183406263</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>-0.3093875183406263</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>25.14999961853027</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>25.29000091552734</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>24.75</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>25.10000038146973</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="n">
         <v>24.64083862304688</v>
       </c>
-      <c r="G118">
+      <c r="G118" t="n">
         <v>454000</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>0.04019897448982368</v>
       </c>
-      <c r="I118">
+      <c r="I118" t="n">
         <v>0.05734475665734237</v>
       </c>
-      <c r="J118">
+      <c r="J118" t="n">
         <v>-0.2867291457516856</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="n">
         <v>-0.2867291457516856</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>27.07999992370605</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>27.07999992370605</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>26.56999969482422</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>26.89999961853027</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
         <v>26.56365776062012</v>
       </c>
-      <c r="G119">
+      <c r="G119" t="n">
         <v>167500</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>0.07171311592446861</v>
       </c>
-      <c r="I119">
+      <c r="I119" t="n">
         <v>0.057462561445166</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="n">
         <v>-0.2445942387681217</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="n">
         <v>-0.2445942387681217</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>26.09000015258789</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>26.1200008392334</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>25.70000076293945</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>25.90999984741211</v>
       </c>
-      <c r="F120">
-        <v>25.58603477478027</v>
-      </c>
-      <c r="G120">
+      <c r="F120" t="n">
+        <v>25.58603668212891</v>
+      </c>
+      <c r="G120" t="n">
         <v>70600</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>-0.03680296599098076</v>
       </c>
-      <c r="I120">
+      <c r="I120" t="n">
         <v>0.05732969225683401</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="n">
         <v>-0.2651729699150629</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="n">
         <v>-0.2651729699150629</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>26.45000076293945</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>26.56999969482422</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>26.03000068664551</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>26.54999923706055</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>26.21803283691406</v>
       </c>
-      <c r="G121">
+      <c r="G121" t="n">
         <v>140300</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>0.02470086427701612</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>0.05712421755685824</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>-0.2290940680679809</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>-0.2290940680679809</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>26.51000022888184</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>26.89999961853027</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>26.51000022888184</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>26.57999992370605</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>26.24765968322754</v>
       </c>
-      <c r="G122">
+      <c r="G122" t="n">
         <v>67800</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>0.001129969397649866</v>
       </c>
-      <c r="I122">
+      <c r="I122" t="n">
         <v>0.05688377370512291</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="n">
         <v>-0.2053811863240654</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="n">
         <v>-0.2053811863240654</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>28.1299991607666</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>28.34000015258789</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>27.84000015258789</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>28.07999992370605</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
         <v>27.72890472412109</v>
       </c>
-      <c r="G123">
+      <c r="G123" t="n">
         <v>65800</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>0.05643340873986191</v>
       </c>
-      <c r="I123">
+      <c r="I123" t="n">
         <v>0.05696655507532436</v>
       </c>
-      <c r="J123">
+      <c r="J123" t="n">
         <v>-0.1995439436138187</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="n">
         <v>-0.1995439436138187</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>30.97999954223633</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>31.10000038146973</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>30.60000038146973</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>30.78000068664551</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>30.39514541625977</v>
       </c>
-      <c r="G124">
+      <c r="G124" t="n">
         <v>106000</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>0.09615387358530669</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>0.05645550328246641</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>-0.09363953131792402</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="n">
         <v>-0.09363953131792402</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>32.84999847412109</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>32.90999984741211</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>32.40999984741211</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>32.70000076293945</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>32.36191940307617</v>
       </c>
-      <c r="G125">
+      <c r="G125" t="n">
         <v>59100</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>0.06237816872846835</v>
       </c>
-      <c r="I125">
+      <c r="I125" t="n">
         <v>0.05618705158089403</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="n">
         <v>-0.04720276650028865</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="n">
         <v>-0.04720276650028865</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>30.45000076293945</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>30.5</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>29.84000015258789</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>29.94000053405762</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="n">
         <v>29.63045501708984</v>
       </c>
-      <c r="G126">
+      <c r="G126" t="n">
         <v>118600</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>-0.08440367475495236</v>
       </c>
-      <c r="I126">
+      <c r="I126" t="n">
         <v>0.05589389854675277</v>
       </c>
-      <c r="J126">
+      <c r="J126" t="n">
         <v>-0.03976907501544602</v>
       </c>
-      <c r="K126">
+      <c r="K126" t="n">
         <v>-0.03976907501544602</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>30</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>30.45000076293945</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>30</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>30.19000053405762</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>29.87787055969238</v>
       </c>
-      <c r="G127">
+      <c r="G127" t="n">
         <v>65400</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>0.008350033251188993</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>0.05588242710852446</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>0.03319648335035397</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>0.03319648335035397</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>29.11000061035156</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>29.31999969482422</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>29.02000045776367</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>29.21999931335449</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>28.91789817810059</v>
       </c>
-      <c r="G128">
+      <c r="G128" t="n">
         <v>286000</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>-0.0321298841849591</v>
       </c>
-      <c r="I128">
+      <c r="I128" t="n">
         <v>0.05562046209812745</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="n">
         <v>0.2682290864694481</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="n">
         <v>0.2682290864694481</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>29.07999992370605</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>29.1200008392334</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>28.76000022888184</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>28.90999984741211</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>28.6111011505127</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="n">
         <v>110900</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>-0.0106091537723173</v>
       </c>
-      <c r="I129">
+      <c r="I129" t="n">
         <v>0.05531595870365937</v>
       </c>
-      <c r="J129">
+      <c r="J129" t="n">
         <v>0.1980936946909388</v>
       </c>
-      <c r="K129">
+      <c r="K129" t="n">
         <v>0.1980936946909388</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>30.63999938964844</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>30.89999961853027</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>30.27000045776367</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>30.79000091552734</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
         <v>30.47166633605957</v>
       </c>
-      <c r="G130">
+      <c r="G130" t="n">
         <v>280300</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>0.06502943888059276</v>
       </c>
-      <c r="I130">
+      <c r="I130" t="n">
         <v>0.05550115902629645</v>
       </c>
-      <c r="J130">
+      <c r="J130" t="n">
         <v>0.2266932449235461</v>
       </c>
-      <c r="K130">
+      <c r="K130" t="n">
         <v>0.2266932449235461</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>31.13999938964844</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>31.13999938964844</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>30.8700008392334</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>30.94000053405762</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>30.82756233215332</v>
       </c>
-      <c r="G131">
+      <c r="G131" t="n">
         <v>89500</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>0.004871699060412515</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>0.05550127471655873</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>0.1501859097702127</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>0.1501859097702127</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>28</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>28.07999992370605</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>27.92000007629395</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>27.96999931335449</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="n">
         <v>27.86835289001465</v>
       </c>
-      <c r="G132">
+      <c r="G132" t="n">
         <v>79200</v>
       </c>
-      <c r="H132">
+      <c r="H132" t="n">
         <v>-0.09599228084801925</v>
       </c>
-      <c r="I132">
+      <c r="I132" t="n">
         <v>0.05596336889992968</v>
       </c>
-      <c r="J132">
+      <c r="J132" t="n">
         <v>0.07950596210243255</v>
       </c>
-      <c r="K132">
+      <c r="K132" t="n">
         <v>0.07950596210243255</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>30.1299991607666</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>30.27000045776367</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>30</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>30.05999946594238</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="n">
         <v>29.95075798034668</v>
       </c>
-      <c r="G133">
+      <c r="G133" t="n">
         <v>157700</v>
       </c>
-      <c r="H133">
+      <c r="H133" t="n">
         <v>0.07472292470132458</v>
       </c>
-      <c r="I133">
+      <c r="I133" t="n">
         <v>0.05618614450286174</v>
       </c>
-      <c r="J133">
+      <c r="J133" t="n">
         <v>0.1322034022502836</v>
       </c>
-      <c r="K133">
+      <c r="K133" t="n">
         <v>0.1322034022502836</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>29.95000076293945</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>30</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>29.70000076293945</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>29.75</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>29.64188575744629</v>
       </c>
-      <c r="G134">
+      <c r="G134" t="n">
         <v>255100</v>
       </c>
-      <c r="H134">
+      <c r="H134" t="n">
         <v>-0.0103126903343298</v>
       </c>
-      <c r="I134">
+      <c r="I134" t="n">
         <v>0.05446288698868026</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="n">
         <v>0.1192626066739262</v>
       </c>
-      <c r="K134">
+      <c r="K134" t="n">
         <v>0.1192626066739262</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>31.64999961853027</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>31.71999931335449</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>31.42000007629395</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>31.67000007629395</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>31.55490875244141</v>
       </c>
-      <c r="G135">
+      <c r="G135" t="n">
         <v>132600</v>
       </c>
-      <c r="H135">
+      <c r="H135" t="n">
         <v>0.06453781769055289</v>
       </c>
-      <c r="I135">
+      <c r="I135" t="n">
         <v>0.05361660868860475</v>
       </c>
-      <c r="J135">
+      <c r="J135" t="n">
         <v>0.1278490086304129</v>
       </c>
-      <c r="K135">
+      <c r="K135" t="n">
         <v>0.1278490086304129</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>31.76000022888184</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>32.09000015258789</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>31.6299991607666</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>31.96999931335449</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
         <v>31.85381698608398</v>
       </c>
-      <c r="G136">
+      <c r="G136" t="n">
         <v>248900</v>
       </c>
-      <c r="H136">
+      <c r="H136" t="n">
         <v>0.009472662972461077</v>
       </c>
-      <c r="I136">
+      <c r="I136" t="n">
         <v>0.05359675744734109</v>
       </c>
-      <c r="J136">
+      <c r="J136" t="n">
         <v>0.03866142300722197</v>
       </c>
-      <c r="K136">
+      <c r="K136" t="n">
         <v>0.03866142300722197</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>31.54999923706055</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>31.73999977111816</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>31.42000007629395</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>31.63999938964844</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>31.63999938964844</v>
       </c>
-      <c r="G137">
+      <c r="G137" t="n">
         <v>363800</v>
       </c>
-      <c r="H137">
+      <c r="H137" t="n">
         <v>-0.01032217487625053</v>
       </c>
-      <c r="I137">
+      <c r="I137" t="n">
         <v>0.05361059171190115</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="n">
         <v>-0.03241594338102793</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="n">
         <v>-0.03241594338102793</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B138">
-        <v>31.47999954223633</v>
-      </c>
-      <c r="C138">
-        <v>31.47999954223633</v>
-      </c>
-      <c r="D138">
+      <c r="B138" t="n">
+        <v>31.13999938964844</v>
+      </c>
+      <c r="C138" t="n">
+        <v>31.21999931335449</v>
+      </c>
+      <c r="D138" t="n">
         <v>31.07999992370605</v>
       </c>
-      <c r="E138">
-        <v>31.28000068664551</v>
-      </c>
-      <c r="F138">
-        <v>31.28000068664551</v>
-      </c>
-      <c r="G138">
-        <v>250920</v>
-      </c>
-      <c r="H138">
-        <v>-0.01137796175560957</v>
-      </c>
-      <c r="I138">
-        <v>0.052850657909335</v>
-      </c>
-      <c r="J138">
-        <v>0.04475618332282938</v>
-      </c>
-      <c r="K138">
-        <v>0.04475618332282938</v>
+      <c r="E138" t="n">
+        <v>31.21660041809082</v>
+      </c>
+      <c r="F138" t="n">
+        <v>31.21660041809082</v>
+      </c>
+      <c r="G138" t="n">
+        <v>39458</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-0.01338176294959537</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.05285554406803502</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04263860592056545</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.04263860592056545</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>